--- a/exercise.xlsx
+++ b/exercise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA64DFB8-2BB9-4784-8196-465459A829A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22D0851-07C3-4122-AD03-6B74AC08C5B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="38">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,50 @@
   </si>
   <si>
     <t>哑铃孤立弯举左右12+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周4/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单腿硬拉左右13*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭步蹲13*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保加利亚深蹲左右13*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓冲深蹲13*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑 13+11+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哑铃臀桥支撑卧推11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哑铃平地支撑卧推11*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哑铃钻石卧推11*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哑铃平地飞鸟11*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +219,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,14 +238,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,17 +530,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -513,7 +569,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -522,83 +578,150 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
